--- a/アカウント一覧_単体テスト.xlsx
+++ b/アカウント一覧_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764D9700-FB54-4154-9D50-A02A4F139763}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E361849C-E3A0-4E28-B8C4-3189AC7A06EC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="4070" yWindow="1130" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント一覧画面" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,9 +551,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1255,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1309,8 +1306,8 @@
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
-        <v>45991</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1347,8 +1344,8 @@
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4">
-        <v>45991</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>37</v>
@@ -1385,8 +1382,8 @@
       <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="4">
-        <v>45991</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>37</v>
@@ -1423,8 +1420,8 @@
       <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="4">
-        <v>45991</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>37</v>
@@ -1461,8 +1458,8 @@
       <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
-        <v>45991</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>37</v>
@@ -1499,8 +1496,8 @@
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4">
-        <v>45991</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
@@ -1537,8 +1534,8 @@
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="4">
-        <v>45991</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>37</v>
@@ -1575,8 +1572,8 @@
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="4">
-        <v>45991</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>37</v>
@@ -1597,7 +1594,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1613,8 +1610,8 @@
       <c r="F24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="4">
-        <v>45991</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>37</v>
@@ -1622,7 +1619,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1651,8 +1648,8 @@
       <c r="F26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="4">
-        <v>45991</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>37</v>
@@ -1687,8 +1684,8 @@
       <c r="F28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="4">
-        <v>45991</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>37</v>
